--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qsun/Project/gempl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A62C4-87F5-AF4B-B50A-4F2D8D8D69A5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C713D-0B36-B041-882D-14BA031852DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="6500" windowWidth="28040" windowHeight="8900" activeTab="4" xr2:uid="{D4A953E5-A324-3743-A9D7-CD2EEA0AF3A8}"/>
+    <workbookView xWindow="1600" yWindow="3580" windowWidth="28040" windowHeight="13460" activeTab="2" xr2:uid="{D4A953E5-A324-3743-A9D7-CD2EEA0AF3A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="total_c3" sheetId="1" r:id="rId1"/>
-    <sheet name="total_c4" sheetId="4" r:id="rId2"/>
-    <sheet name="total_c1" sheetId="2" r:id="rId3"/>
-    <sheet name="total_c2" sheetId="3" r:id="rId4"/>
+    <sheet name="total_c1" sheetId="2" r:id="rId1"/>
+    <sheet name="total_c2" sheetId="3" r:id="rId2"/>
+    <sheet name="total_c3" sheetId="1" r:id="rId3"/>
+    <sheet name="total_c4" sheetId="4" r:id="rId4"/>
     <sheet name="total_c5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="33">
   <si>
     <t>total_c3_c4</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>total_c2_c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>total_c2_c4</t>
@@ -508,24 +505,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F275F8D-8557-CA4C-B4BC-FEC6FF7822A6}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81120647-E00B-964C-AE79-9721C9297084}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="10.83203125" style="2"/>
+    <col min="9" max="11" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
@@ -537,18 +535,18 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -557,30 +555,30 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
-        <v>6.81</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="E2" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>55</v>
-      </c>
-      <c r="I2">
-        <v>0.06</v>
-      </c>
-      <c r="J2">
-        <v>0.06</v>
-      </c>
-      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -589,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
-        <v>14.96</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="2">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="2">
         <v>0.01</v>
@@ -604,15 +602,15 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>51</v>
-      </c>
-      <c r="I3">
-        <v>0.61</v>
-      </c>
-      <c r="J3">
-        <v>0.06</v>
-      </c>
-      <c r="K3">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.02</v>
       </c>
     </row>
@@ -621,31 +619,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>5.05</v>
+        <v>0.05</v>
       </c>
       <c r="D4" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K4">
-        <v>0.01</v>
+        <v>48</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -653,31 +651,31 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
-        <v>8.01</v>
+        <v>0.21</v>
       </c>
       <c r="D5" s="2">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>81</v>
-      </c>
-      <c r="I5">
-        <v>0.45</v>
-      </c>
-      <c r="J5">
-        <v>0.16</v>
-      </c>
-      <c r="K5">
-        <v>0.03</v>
+        <v>56</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -685,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
-        <v>17.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E6" s="2">
         <v>0.01</v>
@@ -700,16 +698,16 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>72</v>
-      </c>
-      <c r="I6">
-        <v>3.44</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>0.02</v>
+        <v>31</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -717,31 +715,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
-        <v>16.28</v>
+        <v>0.59</v>
       </c>
       <c r="D7" s="2">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7">
-        <v>64</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K7">
-        <v>0.03</v>
+        <v>42</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -749,30 +747,30 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
-        <v>21.26</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="2">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8">
-        <v>83</v>
-      </c>
-      <c r="I8">
-        <v>1.04</v>
-      </c>
-      <c r="J8">
-        <v>0.16</v>
-      </c>
-      <c r="K8">
+        <v>54</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.02</v>
       </c>
     </row>
@@ -781,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
-        <v>15.02</v>
+        <v>0.1</v>
       </c>
       <c r="D9" s="2">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="2">
         <v>0.01</v>
@@ -796,144 +794,16 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>59</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J9" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2">
-        <v>15.46</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="I10">
-        <v>0.18</v>
-      </c>
-      <c r="J10">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2">
         <v>0.1</v>
       </c>
-      <c r="K10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>94</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12.63</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>43</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2">
-        <v>16.45</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>79</v>
-      </c>
-      <c r="I12">
-        <v>156.38</v>
-      </c>
-      <c r="J12">
-        <v>0.19</v>
-      </c>
-      <c r="K12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2">
-        <v>19.11</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>61</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="K13">
-        <v>0.02</v>
+      <c r="J9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -942,11 +812,849 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70ABC22-F9AD-AC45-A5AB-890001E0B24E}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="10.83203125" style="2"/>
+    <col min="9" max="11" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.74</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>79</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2">
+        <v>27.15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>110</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11.85</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>94</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42.94</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>113</v>
+      </c>
+      <c r="I6" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11.35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.41</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21.38</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>115</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>89</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7.09</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2">
+        <v>19.07</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>135</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F275F8D-8557-CA4C-B4BC-FEC6FF7822A6}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.81</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>0.06</v>
+      </c>
+      <c r="J2">
+        <v>0.06</v>
+      </c>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14.96</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>51</v>
+      </c>
+      <c r="I3">
+        <v>0.61</v>
+      </c>
+      <c r="J3">
+        <v>0.06</v>
+      </c>
+      <c r="K3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>81</v>
+      </c>
+      <c r="I5">
+        <v>0.45</v>
+      </c>
+      <c r="J5">
+        <v>0.16</v>
+      </c>
+      <c r="K5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>72</v>
+      </c>
+      <c r="I6">
+        <v>3.44</v>
+      </c>
+      <c r="J6">
+        <v>0.13</v>
+      </c>
+      <c r="K6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16.28</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21.26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>1.04</v>
+      </c>
+      <c r="J8">
+        <v>0.16</v>
+      </c>
+      <c r="K8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15.02</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15.46</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>0.18</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>94</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12.63</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16.45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>79</v>
+      </c>
+      <c r="I12">
+        <v>156.38</v>
+      </c>
+      <c r="J12">
+        <v>0.19</v>
+      </c>
+      <c r="K12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19.11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>61</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K13">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3688021F-E48C-FE47-9E3D-F74B2BEF0F99}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,7 +1666,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -973,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>12</v>
@@ -1406,7 +2114,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>82</v>
@@ -1421,7 +2129,7 @@
         <v>0.02</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="6">
         <v>73</v>
@@ -1434,721 +2142,6 @@
       </c>
       <c r="K15" s="2">
         <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81120647-E00B-964C-AE79-9721C9297084}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="5" width="10.83203125" style="2"/>
-    <col min="9" max="11" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>67</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3.76</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>48</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>56</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>42</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>54</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70ABC22-F9AD-AC45-A5AB-890001E0B24E}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="5" width="10.83203125" style="2"/>
-    <col min="9" max="11" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.09</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>78</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.74</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>79</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2">
-        <v>27.15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>110</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11.85</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>94</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42.94</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>97</v>
-      </c>
-      <c r="C6" s="2">
-        <v>13.95</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>113</v>
-      </c>
-      <c r="I6" s="2">
-        <v>32.9</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-      <c r="C7" s="2">
-        <v>11.35</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>97</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.41</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>83</v>
-      </c>
-      <c r="C8" s="2">
-        <v>21.38</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>115</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>77</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>77</v>
-      </c>
-      <c r="I9" s="2">
-        <v>35.869999999999997</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>74</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10.32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>89</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7.09</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>101</v>
-      </c>
-      <c r="C12" s="2">
-        <v>19.07</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>135</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E13" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2160,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69F920-A224-9549-91D1-84C885277D3F}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="I1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2172,7 +2165,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -2187,7 +2180,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>19</v>
@@ -2542,7 +2535,9 @@
       <c r="H12" s="6">
         <v>61</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>5.64</v>
+      </c>
       <c r="J12" s="2">
         <v>0.06</v>
       </c>
@@ -2572,7 +2567,9 @@
       <c r="H13" s="6">
         <v>82</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0.9</v>
+      </c>
       <c r="J13" s="2">
         <v>0.12</v>
       </c>
@@ -2602,7 +2599,9 @@
       <c r="H14" s="6">
         <v>52</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>4.8600000000000003</v>
+      </c>
       <c r="J14" s="2">
         <v>0.04</v>
       </c>
@@ -2612,7 +2611,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>112</v>
@@ -2627,12 +2626,14 @@
         <v>0.03</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="6">
         <v>121</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>1.54</v>
+      </c>
       <c r="J15" s="2">
         <v>0.3</v>
       </c>
@@ -2642,7 +2643,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>105</v>
@@ -2657,12 +2658,14 @@
         <v>0.02</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="6">
         <v>83</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0.66</v>
+      </c>
       <c r="J16" s="2">
         <v>0.14000000000000001</v>
       </c>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>85</v>
@@ -2687,12 +2690,14 @@
         <v>0.02</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="6">
         <v>64</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>0.49</v>
+      </c>
       <c r="J17" s="2">
         <v>0.06</v>
       </c>
@@ -2702,7 +2707,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>115</v>
@@ -2717,12 +2722,14 @@
         <v>0.03</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="6">
         <v>54</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>0.33</v>
+      </c>
       <c r="J18" s="2">
         <v>0.04</v>
       </c>
@@ -2732,7 +2739,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>97</v>
@@ -2747,12 +2754,14 @@
         <v>0.02</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="6">
         <v>72</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>0.85</v>
+      </c>
       <c r="J19" s="2">
         <v>0.09</v>
       </c>
